--- a/biology/Médecine/1610_en_santé_et_médecine/1610_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1610_en_santé_et_médecine/1610_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1610_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1610_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1610 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1610_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1610_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Épidémie de diphtérie  à Naples, pendant laquelle Marco Aurelio Severino (1580-1656) pratique et réussit des trachéotomies[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Épidémie de diphtérie  à Naples, pendant laquelle Marco Aurelio Severino (1580-1656) pratique et réussit des trachéotomies.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1610_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1610_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +555,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jacques Ferrand (c.1575-ap.1623), Traité de l'essence et guérison de l'amour[2].
-Jean Béguin (c.1550-c.1620), Tyrocinium chymicum (« Éléments de chimie[3] »).
-Gaspard Bauhin (1560-1624), De compositione medicamentorum (« De la composition des médicaments[4] »).
-Hippolytus Guarinonius (en) (1571-1654), Die Grewel der Verwüstung menschlichen Geschletchts (« L'Horreur de la dévastation du genre humain »), « en fait, simples conseils d'hygiène et de médecine populaires[4] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jacques Ferrand (c.1575-ap.1623), Traité de l'essence et guérison de l'amour.
+Jean Béguin (c.1550-c.1620), Tyrocinium chymicum (« Éléments de chimie »).
+Gaspard Bauhin (1560-1624), De compositione medicamentorum (« De la composition des médicaments »).
+Hippolytus Guarinonius (en) (1571-1654), Die Grewel der Verwüstung menschlichen Geschletchts (« L'Horreur de la dévastation du genre humain »), « en fait, simples conseils d'hygiène et de médecine populaires ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1610_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1610_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20 septembre : Georg Markgraf (mort vers 1644), médecin et naturaliste allemand, explorateur notamment du Brésil[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 septembre : Georg Markgraf (mort vers 1644), médecin et naturaliste allemand, explorateur notamment du Brésil.
 Vers 1610 :
-Nicaise Le Febvre (mort en 1669), pharmacien français[6].
-Marie Meurdrac (morte en 1680), chimiste française qui s'est intéressée à la composition des médicaments[7].</t>
+Nicaise Le Febvre (mort en 1669), pharmacien français.
+Marie Meurdrac (morte en 1680), chimiste française qui s'est intéressée à la composition des médicaments.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1610_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1610_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +625,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>25 août : Jean Pidoux (né en 1550), médecin français, conseiller médecin du roi  Henri IV[8].
-11 septembre : Jakob Zwinger (né en 1569), médecin et philologue suisse[9].
-Nicolas de Nancel (né en 1539), médecin et humaniste français[10].
-Peter Lowe (en) (né vers 1550), chirurgien écossais[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25 août : Jean Pidoux (né en 1550), médecin français, conseiller médecin du roi  Henri IV.
+11 septembre : Jakob Zwinger (né en 1569), médecin et philologue suisse.
+Nicolas de Nancel (né en 1539), médecin et humaniste français.
+Peter Lowe (en) (né vers 1550), chirurgien écossais.</t>
         </is>
       </c>
     </row>
